--- a/ArticleManage/main_working_folder/output_folders/Data 55 Production of active coal/Data55_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 55 Production of active coal/Data55_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Default Dataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 f3  0-1-140-280 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Default Dataset</t>
+    <t>f3</t>
   </si>
   <si>
     <t>X</t>
@@ -97,7 +97,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Default Dataset</a:t>
+              <a:t>Izoterma adsorpcji probki f3 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 f3  0-1-140-280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 f3  0-1-140-280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -174,6 +174,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -243,6 +245,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="280"/>
+          <c:min val="140"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 55 Production of active coal/Data55_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 55 Production of active coal/Data55_all_graphs_excel.xlsx
@@ -1271,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1300,285 +1300,277 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0008</v>
+        <v>0.0179</v>
       </c>
       <c r="B4" s="0">
-        <v>152.1319</v>
+        <v>179.4739</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>0.0528</v>
       </c>
       <c r="B5" s="0">
-        <v>159.4498</v>
+        <v>189.2883</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0016</v>
+        <v>0.1608</v>
       </c>
       <c r="B6" s="0">
-        <v>166.1895</v>
+        <v>201.0144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0089</v>
+        <v>0.212</v>
       </c>
       <c r="B7" s="0">
-        <v>172.3504</v>
+        <v>204.0857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0114</v>
+        <v>0.264</v>
       </c>
       <c r="B8" s="0">
-        <v>176.5865</v>
+        <v>207.3494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0179</v>
+        <v>0.3152</v>
       </c>
       <c r="B9" s="0">
-        <v>179.4739</v>
+        <v>210.2282</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0292</v>
+        <v>0.3639</v>
       </c>
       <c r="B10" s="0">
-        <v>183.3231</v>
+        <v>212.7222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.039</v>
+        <v>0.4135</v>
       </c>
       <c r="B11" s="0">
-        <v>186.595</v>
+        <v>214.831</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0528</v>
+        <v>0.4639</v>
       </c>
       <c r="B12" s="0">
-        <v>189.2883</v>
+        <v>217.1321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0626</v>
+        <v>0.5126</v>
       </c>
       <c r="B13" s="0">
-        <v>190.4419</v>
+        <v>219.4336</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0723</v>
+        <v>0.5638</v>
       </c>
       <c r="B14" s="0">
-        <v>192.3657</v>
+        <v>221.5421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0853</v>
+        <v>0.6141</v>
       </c>
       <c r="B15" s="0">
-        <v>193.5186</v>
+        <v>223.6506</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0918</v>
+        <v>0.6637</v>
       </c>
       <c r="B16" s="0">
-        <v>195.2505</v>
+        <v>226.1445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1024</v>
+        <v>0.7141</v>
       </c>
       <c r="B17" s="0">
-        <v>195.6337</v>
+        <v>228.6383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.1154</v>
+        <v>0.7636</v>
       </c>
       <c r="B18" s="0">
-        <v>197.5569</v>
+        <v>231.1322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1608</v>
+        <v>0.814</v>
       </c>
       <c r="B19" s="0">
-        <v>201.0144</v>
+        <v>234.2036</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.212</v>
+        <v>0.8619</v>
       </c>
       <c r="B20" s="0">
-        <v>204.0857</v>
+        <v>237.6607</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.264</v>
+        <v>0.9106</v>
       </c>
       <c r="B21" s="0">
-        <v>207.3494</v>
+        <v>242.2731</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3152</v>
+        <v>0.9407</v>
       </c>
       <c r="B22" s="0">
-        <v>210.2282</v>
+        <v>246.6964</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3639</v>
+        <v>0.961</v>
       </c>
       <c r="B23" s="0">
-        <v>212.7222</v>
+        <v>250.7365</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4135</v>
+        <v>0.9699</v>
       </c>
       <c r="B24" s="0">
-        <v>214.831</v>
+        <v>253.4308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4639</v>
+        <v>0.1154</v>
       </c>
       <c r="B25" s="0">
-        <v>217.1321</v>
+        <v>197.3643</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5126</v>
+        <v>0.104</v>
       </c>
       <c r="B26" s="0">
-        <v>219.4336</v>
+        <v>196.4036</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5638</v>
+        <v>0.0934</v>
       </c>
       <c r="B27" s="0">
-        <v>221.5421</v>
+        <v>195.4428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6141</v>
+        <v>0.0845</v>
       </c>
       <c r="B28" s="0">
-        <v>223.6506</v>
+        <v>194.0965</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6637</v>
+        <v>0.0747</v>
       </c>
       <c r="B29" s="0">
-        <v>226.1445</v>
+        <v>193.1355</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7141</v>
+        <v>0.0642</v>
       </c>
       <c r="B30" s="0">
-        <v>228.6383</v>
+        <v>191.0193</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7636</v>
+        <v>0.0406</v>
       </c>
       <c r="B31" s="0">
-        <v>231.1322</v>
+        <v>186.7872</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.814</v>
+        <v>0.0301</v>
       </c>
       <c r="B32" s="0">
-        <v>234.2036</v>
+        <v>183.9007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.8619</v>
+        <v>0.013</v>
       </c>
       <c r="B33" s="0">
-        <v>237.6607</v>
+        <v>176.9714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.9106</v>
+        <v>0.0097</v>
       </c>
       <c r="B34" s="0">
-        <v>242.2731</v>
+        <v>172.928</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.9407</v>
+        <v>0.0032</v>
       </c>
       <c r="B35" s="0">
-        <v>246.6964</v>
+        <v>166.9595</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.961</v>
+        <v>0.0008</v>
       </c>
       <c r="B36" s="0">
-        <v>250.7365</v>
+        <v>160.4125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.9699</v>
+        <v>0.0008</v>
       </c>
       <c r="B37" s="0">
-        <v>253.4308</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.9919</v>
-      </c>
-      <c r="B38" s="0">
-        <v>272.4912</v>
-      </c>
-    </row>
-    <row r="39"/>
+        <v>152.7096</v>
+      </c>
+    </row>
+    <row r="38"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 55 Production of active coal/Data55_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 55 Production of active coal/Data55_all_graphs_excel.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 3 f3  0-1-140-280 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 f3  0&amp;1&amp;140&amp;280 " sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -156,12 +156,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 3 f3  0-1-140-280 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 3 f3  0&amp;1&amp;140&amp;280 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 3 f3  0-1-140-280 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 3 f3  0&amp;1&amp;140&amp;280 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
